--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="13.64453125" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21630668903371836</v>
+        <v>0.11726127824499874</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.24427751052980129</v>
+        <v>0.25585603462156603</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.033899744144066254</v>
+        <v>0.058373222245987413</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.013918087618323759</v>
+        <v>0.0090296860217159419</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0098884638751215587</v>
+        <v>0.056676557626973399</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00020088111439479781</v>
+        <v>0.0037758400910431703</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.6030244991599019e-05</v>
+        <v>-6.9514292974282162e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0017930401644951832</v>
+        <v>-0.015773697995366657</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0001606526191004487</v>
+        <v>0.026582662679188296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.44309877772556705</v>
+        <v>0.48739718681731059</v>
       </c>
       <c r="C4" s="0">
-        <v>0.20547756643192405</v>
+        <v>0.080134176688572561</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00042405053897999869</v>
+        <v>4.007381445004661e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0031157835979716527</v>
+        <v>-2.7889030580299323e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0002949464957997638</v>
+        <v>0.00010102545897130592</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0061341567850455338</v>
+        <v>0.083225845698255085</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0033823802733482307</v>
+        <v>0.071503871177038464</v>
       </c>
       <c r="K4" s="0">
-        <v>-6.9742091709568133e-05</v>
+        <v>-0.0034359516109626065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.38525209962456242</v>
+        <v>0.48845815309296425</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.12865685235460167</v>
+        <v>0.01081706963787275</v>
       </c>
       <c r="E5" s="0">
-        <v>0.012184073481811554</v>
+        <v>0.0079450570279248952</v>
       </c>
       <c r="F5" s="0">
-        <v>0.045604960421225665</v>
+        <v>-0.0016108499064255756</v>
       </c>
       <c r="G5" s="0">
-        <v>-8.9844615519824185e-06</v>
+        <v>-0.0046119538603430384</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.2791753541165554e-05</v>
+        <v>-0.0031487855973316107</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0035697893862624694</v>
+        <v>0.0026880402618711815</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.016622705951915451</v>
+        <v>-0.011017611287914952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28616153937261418</v>
+        <v>0.27887084442420262</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.10887091856633359</v>
+        <v>-0.15097775663980939</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00056716309133983574</v>
+        <v>-8.4361129718883341e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.011231299300048576</v>
+        <v>-0.0018668091318364164</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0080169148737732274</v>
+        <v>-0.011961353519019946</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.010194278772930885</v>
+        <v>-0.044960825905641502</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00015925982215458934</v>
+        <v>0.00026379765726447513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.14087269604619526</v>
+        <v>0.38802107905548899</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.1123492687843525</v>
+        <v>0.13197020603385826</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0088834669943096793</v>
+        <v>-0.020272084700229995</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.18228567143263874</v>
+        <v>0.011713539315861145</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00041868090363395504</v>
+        <v>0.00019102185172365226</v>
       </c>
       <c r="H7" s="0">
-        <v>0.00036932348133078265</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0095898457740686803</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.056829770487451137</v>
+        <v>-0.014452447869926721</v>
       </c>
     </row>
     <row r="8">
